--- a/RVD_Predictor_Analysis/results/ExcelFiles/H1N1_Rhinovirus_Intersection.xlsx
+++ b/RVD_Predictor_Analysis/results/ExcelFiles/H1N1_Rhinovirus_Intersection.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">ADAM17</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">CFD</t>
   </si>
   <si>
+    <t xml:space="preserve">CFH</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHI3L1</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t xml:space="preserve">NFE2</t>
   </si>
   <si>
+    <t xml:space="preserve">SDC2</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEC14L1</t>
   </si>
   <si>
@@ -74,7 +80,13 @@
     <t xml:space="preserve">GPX1</t>
   </si>
   <si>
+    <t xml:space="preserve">YME1L1</t>
+  </si>
+  <si>
     <t xml:space="preserve">CPT1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLC25A37</t>
   </si>
   <si>
     <t xml:space="preserve">TNS1</t>
@@ -527,6 +539,26 @@
         <v>22</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
